--- a/AspCoreGraphQL.xlsx
+++ b/AspCoreGraphQL.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -365,6 +366,1343 @@
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Скругленный прямоугольник 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="390525"/>
+          <a:ext cx="2800350" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="48000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="97000"/>
+                <a:lumOff val="3000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Services.WebApplicationCore3GraphQL</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Скругленный прямоугольник 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="2390775"/>
+          <a:ext cx="2800350" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="48000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="97000"/>
+                <a:lumOff val="3000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Application.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WebApplicationCore3GraphQL.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Application</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Скругленный прямоугольник 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="4410075"/>
+          <a:ext cx="2800350" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="48000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="97000"/>
+                <a:lumOff val="3000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Domain.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WebApplicationCore3GraphQL.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Domain</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Скругленный прямоугольник 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6477000"/>
+          <a:ext cx="2800350" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="48000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="97000"/>
+                <a:lumOff val="3000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Domain.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WebApplicationCore3GraphQL.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Domain.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Core</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Скругленный прямоугольник 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8572500"/>
+          <a:ext cx="2800350" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="48000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="97000"/>
+                <a:lumOff val="3000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Infra.Data</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Скругленный прямоугольник 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="10677525"/>
+          <a:ext cx="2800350" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="48000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="97000"/>
+                <a:lumOff val="3000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Infra.CrossCutting.Bus</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Соединительная линия уступом 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3609975" y="1243013"/>
+          <a:ext cx="19050" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1200000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Соединительная линия уступом 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3352800" y="1243013"/>
+          <a:ext cx="276225" cy="10287000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -251724"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Скругленный прямоугольник 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12954000"/>
+          <a:ext cx="2800350" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="48000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="97000"/>
+                <a:lumOff val="3000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Infra.CrossCutting.Identity</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Скругленный прямоугольник 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15240000"/>
+          <a:ext cx="2800350" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="48000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="97000"/>
+                <a:lumOff val="3000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Infra.CrossCutting.IoC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Соединительная линия уступом 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3409950" y="1243013"/>
+          <a:ext cx="219075" cy="12563475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -569565"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Соединительная линия уступом 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="14" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3409950" y="1243013"/>
+          <a:ext cx="219075" cy="14849475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -856522"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Соединительная линия уступом 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1450181" y="3150394"/>
+          <a:ext cx="2871788" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -7960"/>
+            <a:gd name="adj2" fmla="val 261268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Соединительная линия уступом 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-707232" y="5307806"/>
+          <a:ext cx="7034213" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2302"/>
+            <a:gd name="adj2" fmla="val 315079"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Соединительная линия уступом 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1326355" y="5245894"/>
+          <a:ext cx="2919413" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -7830"/>
+            <a:gd name="adj2" fmla="val 351908"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Соединительная линия уступом 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-802482" y="7374732"/>
+          <a:ext cx="7119938" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1472"/>
+            <a:gd name="adj2" fmla="val 397600"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Соединительная линия уступом 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="-269080" y="6293644"/>
+          <a:ext cx="3309937" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6618"/>
+            <a:gd name="adj2" fmla="val 130534"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Соединительная линия уступом 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="-392905" y="8331994"/>
+          <a:ext cx="3348037" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6259"/>
+            <a:gd name="adj2" fmla="val 134043"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Соединительная линия уступом 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="0"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="-2459830" y="8484394"/>
+          <a:ext cx="7691437" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5201"/>
+            <a:gd name="adj2" fmla="val 138931"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Соединительная линия уступом 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1038225" y="10001250"/>
+          <a:ext cx="7048500" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -655,11 +1993,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
